--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ngf-Sorcs3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ngf-Sorcs3.xlsx
@@ -528,22 +528,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2000683333333333</v>
+        <v>0.322531</v>
       </c>
       <c r="H2">
-        <v>0.600205</v>
+        <v>0.967593</v>
       </c>
       <c r="I2">
-        <v>0.01182207550347303</v>
+        <v>0.01892149513432853</v>
       </c>
       <c r="J2">
-        <v>0.01182207550347303</v>
+        <v>0.01892149513432853</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,7 +552,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.004862000000000001</v>
+        <v>0.004862</v>
       </c>
       <c r="N2">
         <v>0.014586</v>
@@ -561,19 +561,19 @@
         <v>0.02348134339170667</v>
       </c>
       <c r="P2">
-        <v>0.02348134339170668</v>
+        <v>0.02348134339170667</v>
       </c>
       <c r="Q2">
-        <v>0.0009727322366666668</v>
+        <v>0.001568145722</v>
       </c>
       <c r="R2">
-        <v>0.008754590130000002</v>
+        <v>0.014113311498</v>
       </c>
       <c r="S2">
-        <v>0.0002775982144997337</v>
+        <v>0.0004443021247336752</v>
       </c>
       <c r="T2">
-        <v>0.0002775982144997337</v>
+        <v>0.0004443021247336752</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2000683333333333</v>
+        <v>0.322531</v>
       </c>
       <c r="H3">
-        <v>0.600205</v>
+        <v>0.967593</v>
       </c>
       <c r="I3">
-        <v>0.01182207550347303</v>
+        <v>0.01892149513432853</v>
       </c>
       <c r="J3">
-        <v>0.01182207550347303</v>
+        <v>0.01892149513432853</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,16 +626,16 @@
         <v>0.9765186566082934</v>
       </c>
       <c r="Q3">
-        <v>0.04045301672666667</v>
+        <v>0.065214478076</v>
       </c>
       <c r="R3">
-        <v>0.36407715054</v>
+        <v>0.586930302684</v>
       </c>
       <c r="S3">
-        <v>0.01154447728897329</v>
+        <v>0.01847719300959486</v>
       </c>
       <c r="T3">
-        <v>0.01154447728897329</v>
+        <v>0.01847719300959486</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>1.33575</v>
       </c>
       <c r="I4">
-        <v>0.02630990637159653</v>
+        <v>0.0261208867009986</v>
       </c>
       <c r="J4">
-        <v>0.02630990637159653</v>
+        <v>0.0261208867009986</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,7 +676,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.004862000000000001</v>
+        <v>0.004862</v>
       </c>
       <c r="N4">
         <v>0.014586</v>
@@ -685,7 +685,7 @@
         <v>0.02348134339170667</v>
       </c>
       <c r="P4">
-        <v>0.02348134339170668</v>
+        <v>0.02348134339170667</v>
       </c>
       <c r="Q4">
         <v>0.0021648055</v>
@@ -694,10 +694,10 @@
         <v>0.0194832495</v>
       </c>
       <c r="S4">
-        <v>0.0006177919461151095</v>
+        <v>0.000613353510322012</v>
       </c>
       <c r="T4">
-        <v>0.0006177919461151096</v>
+        <v>0.000613353510322012</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.33575</v>
       </c>
       <c r="I5">
-        <v>0.02630990637159653</v>
+        <v>0.0261208867009986</v>
       </c>
       <c r="J5">
-        <v>0.02630990637159653</v>
+        <v>0.0261208867009986</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -756,10 +756,10 @@
         <v>0.810249921</v>
       </c>
       <c r="S5">
-        <v>0.02569211442548142</v>
+        <v>0.02550753319067658</v>
       </c>
       <c r="T5">
-        <v>0.02569211442548142</v>
+        <v>0.02550753319067658</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>48.833895</v>
       </c>
       <c r="I6">
-        <v>0.9618680181249305</v>
+        <v>0.954957618164673</v>
       </c>
       <c r="J6">
-        <v>0.9618680181249305</v>
+        <v>0.954957618164673</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,7 +800,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.004862000000000001</v>
+        <v>0.004862</v>
       </c>
       <c r="N6">
         <v>0.014586</v>
@@ -809,19 +809,19 @@
         <v>0.02348134339170667</v>
       </c>
       <c r="P6">
-        <v>0.02348134339170668</v>
+        <v>0.02348134339170667</v>
       </c>
       <c r="Q6">
-        <v>0.07914346583000001</v>
+        <v>0.07914346583</v>
       </c>
       <c r="R6">
-        <v>0.7122911924700001</v>
+        <v>0.7122911924699999</v>
       </c>
       <c r="S6">
-        <v>0.02258595323109183</v>
+        <v>0.02242368775665098</v>
       </c>
       <c r="T6">
-        <v>0.02258595323109184</v>
+        <v>0.02242368775665099</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>48.833895</v>
       </c>
       <c r="I7">
-        <v>0.9618680181249305</v>
+        <v>0.954957618164673</v>
       </c>
       <c r="J7">
-        <v>0.9618680181249305</v>
+        <v>0.954957618164673</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -880,10 +880,10 @@
         <v>29.62205470026</v>
       </c>
       <c r="S7">
-        <v>0.9392820648938386</v>
+        <v>0.9325339304080219</v>
       </c>
       <c r="T7">
-        <v>0.9392820648938387</v>
+        <v>0.932533930408022</v>
       </c>
     </row>
   </sheetData>
